--- a/biology/Botanique/Cyclamen_cyprium/Cyclamen_cyprium.xlsx
+++ b/biology/Botanique/Cyclamen_cyprium/Cyclamen_cyprium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclamen cyprium Kotschy est une espèce de plantes à fleurs de la famille des Primulaceae endémique de l’île de Chypre, où elle pousse dans les forêts de pins et de cèdres des Monts Kyrenia et Troodos. Cyclamen cyprium est la fleur nationale de l’île de Chypre[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclamen cyprium Kotschy est une espèce de plantes à fleurs de la famille des Primulaceae endémique de l’île de Chypre, où elle pousse dans les forêts de pins et de cèdres des Monts Kyrenia et Troodos. Cyclamen cyprium est la fleur nationale de l’île de Chypre,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs gracieuses et très odorantes, qui apparaissent en automne, sont blanches à rosées avec une tache basale pourprée.
 Les pétales élancés à extrémité élégamment contournée ont à la base une oreillette de chaque côté.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme cette espèce n’est pas très rustique, il est conseillé de la cultiver en serre froide.
 ‘E.S. form’ est une sélection à marbrures argentées prononcées.
